--- a/참고문헌.xlsx
+++ b/참고문헌.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOON\Desktop\seminar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{027C3721-456F-4856-BAF8-6AB16DB46515}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F133869D-598B-473A-96FB-DAFAD06B230D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8120" xr2:uid="{36165DEB-141B-4EFB-883A-BE411D82AAD0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8120" activeTab="1" xr2:uid="{36165DEB-141B-4EFB-883A-BE411D82AAD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="139">
   <si>
     <t>ulrich&amp;dave</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,10 +136,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gillley, eggland</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>nadler, nadler</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -248,10 +244,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>김기태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이규녀 외</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -325,6 +317,1726 @@
   </si>
   <si>
     <t>austin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OEC. (2001). Draft Strategy Paper for Network B of the OECD INES
+Project. Briefing Book for the NW-B of the OECD INES Project,
+2001 Prague Meeting. OECD.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HRD-Index와 기업성과</t>
+  </si>
+  <si>
+    <t>인 적자 원 개 발 지 표 및 지 수</t>
+  </si>
+  <si>
+    <r>
+      <t>성과 연계형 기업 HR 활동 지표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>⋅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>지수 개발</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HRD-Inex(인적자원개발지수) 구축 및 활용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HRD-Index 변화와 기업성과</t>
+  </si>
+  <si>
+    <t>황성수 외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Holton, E. F., Swanson, R. A., &amp; Naquin, S. S. (2001). Andragogy in practice: Clarifying the andragogical model of adult learning. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="7"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Performance improvement quarterly</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="7"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1), 118-143.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">McLagan, P. A. (1989). Models for HRD practice. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Training &amp; development journal,
+43</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(9), 49-60.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>송창용 외. (2006). 인적자원개발지수(HRD-Index) 개발.  한국직업능력개발원.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nadler, L. and Nadler, Z.(1989). </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Developing Human Resource(3rd ed)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. San Francisco, CA:
+Jossey-Bass.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mondy, W. R. and Noe, R. M.(1990). </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Human Resource Management(4th ed)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Allyn and
+Bacon.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rothwell, W. J. and Sredl, H. J.(1992). </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The ASTD Reference Guide to Professional Human
+Resource Development Roles and Competencies(2nd Ed.)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 1, Amherst, MA: HRD Press.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Giley, J. W. and Eggland, S. A.(1989). </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Principles of Human Resource Development, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Addison-Wesley.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Gilley, J. W., Eggland, S, A., and Gilley, A. M.(2002). </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Principles of Human Resource Development(2nd Ed.)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Cambridge, Mass, Preseus Books.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Garavan, T. N.(2007). A strategic perspective on human resource development. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Advances in Developing Human Resource, 9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(1), 11-30.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">송영수(2013). 국내 대기업 인적자원개발(HRD) 동향 탐색. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>한국경영학회, 17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(2), 1-24.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">송해덕(2007). 수행공학과 전략적 인적자원개발. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HRD연구, 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(1), 99-108.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Torraco, R. J., &amp; Swanson, R. A.(1995). The strategic roles of human resource development. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Human Resource Planning, 18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(4), 10-21.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Robinson, D. G., &amp; Robinson, J. C.(2008). </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Performance consulting(2nd ed.)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. San Francisco, CA: Berrett-Koehler.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Swanson, R. A.(1995). Human Resource Development: Performance is Key. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Human Resource Development Quarterly, 6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(2), 207-213.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">김진모. (2001). 인적자원 개발을 위한 직무역량 규명; 학습지 기업을 대상으로. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>한국농촌지도학회지, 8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(2), 159-177.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Piskurich, G. M., &amp; Sanders, E. S.(1998). </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ASTD models for learning technologies: Roles, competencies, and outputs(Vol. 1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. American Society for Training and Development.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>김현수. (2008). 기업의 교육훈련과 근로자의 자격취득. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="7"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>인적자원개발연구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="7"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(2), 107-131.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Campbell, J. P., McCloy, R. A., Oppler, S. H., &amp; Sager, C. E. (1993). A theory of performance. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Personnel selection in organizations, 3570</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 35-70.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tharenou, P., Saks, A. M., &amp; Moore, C.(2007). A Review and Critique of Research on Training and Organizational-level Outcomes. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Human Resource Management Review, 17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(3), 251-273.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cannon-Bowers, J. A., &amp; Salas, E. (1997). Teamwork competencies: The interaction of team member knowledge, skills, and attitudes. Workforce readiness: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Competencies and assessment,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 151-174.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">김기태(2008). 교육훈련 투자가 조직성과에 미치는 영향: 직무만족, 직무능력, 역량의 매개효과를 중심으로. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>인사관리연구, 32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(4), 29-57.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">김기태, &amp; 조봉순. (2008). 인적자원관리와 조직 성과간의 관계에 관한 연구: 인적자원관리 성과로서 종업원 태도의 매개효과를 중심으로. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>인사조직연구, 16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(1), 115-157.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">이용탁, (2007). 인적자원개발을 통한 직무능력향상이 직무만족 및 조직몰입에 미치는 영향. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>인적자원관리연구, 14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(2), 143-160</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Becker, G. S. (1962). Investment in human capital: A theoretical analysis. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Journal of political economy, 70</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 9-49.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wright, P., &amp; McMahan, G. C. (1992). Theoretical perspective for strategic human resource management. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Journal of Management, 18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 295-320.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teece, D.J. (2000) Managing Intellectual Capital, Oxford University Press, Oxford, UK. Van den Bosch, F. A., Volberda, H. W., &amp; De Boer, M. (1999). Coevolution of firm absorptive capacity and knowledge environment: Organizational forms and combinative capabilities. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Organization science, 10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(5), 551-568.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bahra, N. (2001) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Competitive Knowledge Management</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Palgrave, New York.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">나승일, 김기용. (2007). 서울대학교 직업교육 CEO과정 참여자의 학습 전이 수준. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>농업교육과 인적자원개발. 39</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(4). 111-141.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Baldwin, T. T., &amp; Ford, J. K. (1988). Transfer of Training: A Review and Directions for Future Research. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Personell Psychology, 41</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 63-103.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Burke, L. A. (1997). Improving positive transfer: A test of relapse prevention training on transfer outcomes. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Human Resource Development Quarterly, 8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(2), 115-128.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Adam, E. E.(1994). Alternative quality improvement and organization performance. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Journal of Operations Management, 12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 27-44.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Naguib, H.(1993). The implementation of total quality management in semiconductor manufacturing operation. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IEEE Trans Semiconductor Manufacturing, 6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(2), 160.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Black, S. E., &amp; Lynch, L. M.(2000). What's driving the new economy: The benefits of workplace innovation. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NBER Working Paper 7479</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, National Bureau of Economics Research.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bartel, A P(2000). Measuring the employer's return on investments in training: Evidence from the literature. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Industrial Relations, 39</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(3), 502-524.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">김재구, 임상훈, 김동배(2003). 인사관리시스템과 경영성과가 상호 간에 미치는 영향에 대한 연구: 제조업 생산직을 중심으로. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>인사관리연구, 27</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(3), 31-54.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">김안국(2007). 한국 기업의 인적자원(HR) 수준과 기업 성과: HCCP 자료를 통한 HRI(Human Resources Index) 지수를 중심으로. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Working Paper 2007-3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. 한국직업능력개발원.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>임정연</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>․</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">이영민(2010), 중소제조기업의 교육훈련 투자가 기업성과에 미치는 영향 분석. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>인적자원관리연구, 17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(2): 139-162.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">나인강(2010). 기업의 훈련이 근로자의 인적자원성과 및 기업성과에 미치는 영향. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>인적자원관리연구, 17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(1), 39-56.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">이규녀, 박기문, 이병욱, 최완식, 정현옥(2009). 기업인적자원개발 형태와 제도가 직무능력향상에 미치는 효과에 관한 인식분석. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>한국기술교육학회지, 9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(2), 174-197.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">이영민, 이수영(2008). 기업의 인적자원 환경이 재직자의 직무만족과 조직몰입에 미치는 영향. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>기업교육연구, 10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(2), 59-78.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">최보인, 김중화(2008). 기업 교육관련 특성이 직무능력 향상에 미치는 영향 연구. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>대한경영학회지, 21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(1), 347-368.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Barney, J. (1991). Firm resources and sustained competitive advantage. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Journal of management, 17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(1), 99-120.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">최우재(2015). 인적자원개발이 성과에 미치는 영향: 조직변화의 조절효과를 중심으로. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>기업경영연구, 22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(3), 71-85.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고용노동부(2017). 2017년 기업직업훈련 실태조사 기초 분석 보고서.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Cook, T. D., Campbell, D. T., &amp; Shadish, W. (2002). </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="7"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Experimental and quasi-experimental designs for generalized causal inference</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Boston, MA: Houghton Mifflin.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Zhao, Q. Y., Luo, J. C., Su, Y., Zhang, Y. J., Tu, G. W., &amp; Luo, Z. (2021). Propensity score matching with R: conventional methods and new features. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Annals of Translational Medicine, 9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(9).</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mitra, R., &amp; Reiter, J. P. (2016). A comparison of two methods of estimating propensity scores after multiple imputation. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Statistical methods in medical research</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 25(1), 188-204.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wu, X., Mealli, F., Kioumourtzoglou, M. A., Dominici, F., &amp; Braun, D. (2018). Matching on generalized propensity scores with continuous exposures. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>arXiv preprint arXiv:1812.06575.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Austin, P. C. (2019). Assessing covariate balance when using the generalized propensity score with quantitative or continuous exposures. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Statistical methods in medical research, 28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(5), 1365-1377.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ulrich, D. (1996). Human resource champions: The next agenda for adding value and delivering results. Harvard Business Press.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">권우석, 이지민, &amp; 이규민. (2016). 심리적 권한 위임이 직무태도와 조직시민행동에 미치는 영향: 인지된 직무능력을 중심으로. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>외식경영연구, 19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(1), 7-27.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Broad, M. L., &amp; Newstrom, J. W. (1992).</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Transfer of Training: Action-Packed Strategies To Ensure High Payoff from Training Investments</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Corporate and Professional Publishing Group, Addison-Wesley Publishing Co., One Jacob Way, Reading, MA 01867 (discount on quantity orders)..</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백영민, 박인서. (2021). R기반 성향점수분석: 루빈 인과모형 기반 인과추론. 한나래출판사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">조대연, 정은정, 홍순현, &amp; 강윤석. (2011). 국내 직무분석에 관한 연구논문 분석: 2000 년 이후 국내학술지 발표 논문을 중심으로. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>역량개발학습연구, 6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(4), 1-19.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Collings, D. G., and M. Kamel(2009), “Strategic talent management: A review and research
+agenda,” </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Human Resource Management Review, 19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(2), 304-313.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">이영민. (2010). 기업의 특성과 HR 시스템에 따른 교육훈련 투자실태 조사 분석. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>기업교육과인재연구, 12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(2), 1-24.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Arulampalam, W., &amp; Booth, A. L. (1998). Training and labour market flexibility: is there a trade</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>‐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">off?. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>British Journal of Industrial Relations, 36</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(4), 521-536.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">조준모, &amp; 박성재. (2008). 기업지배구조가 인적자원관리에 미치는 효과 분석: 재무-노동 연결자료를 이용한 분석. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>한국경제연구, 20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 69-105.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">안병룡. (2002). 우리사주조합제도의 생산성 증가효과: 제도 실시전후의 비교분석을 통하여. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>국제경제연구, 8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(1), 233-257.</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -332,7 +2044,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,6 +2059,50 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria Math"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="7"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -371,8 +2127,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -689,50 +2451,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B643A43-1539-400C-BA7C-23A44667AC73}">
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A71" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="32.9140625" customWidth="1"/>
+    <col min="4" max="4" width="79" customWidth="1"/>
+    <col min="5" max="5" width="46.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
         <v>1997</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D1" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="51" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>2001</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D2" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>2019</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>2001</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -742,32 +2518,47 @@
       <c r="C5">
         <v>2007</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
         <v>2014</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="B7">
         <v>2014</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
         <v>2001</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D8" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -775,15 +2566,18 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
         <v>1989</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D10" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -791,23 +2585,29 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
         <v>1990</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D12" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
         <v>1992</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D13" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -815,23 +2615,29 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15">
         <v>1989</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D15" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16">
         <v>2002</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D16" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -839,484 +2645,605 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18">
         <v>2013</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="34" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19">
         <v>2007</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D19" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20">
         <v>2007</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21">
         <v>1995</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22">
         <v>2008</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23">
         <v>1995</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D23" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1998</v>
+      </c>
+      <c r="D24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+        <v>2001</v>
+      </c>
+      <c r="D25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+        <v>2008</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27">
+        <v>1993</v>
+      </c>
+      <c r="D27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>1989</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>1997</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>2007</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
         <v>2008</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>1993</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>1989</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>1989</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D31" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
         <v>2007</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33">
+      <c r="D33" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
         <v>2008</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D35" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36">
         <v>2016</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D36" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1962</v>
+      </c>
+      <c r="D37" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1992</v>
+      </c>
+      <c r="D38" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="68" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39">
-        <v>1962</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+        <v>2000</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40">
+        <v>2001</v>
+      </c>
+      <c r="D40" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>2007</v>
+      </c>
+      <c r="D42" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
         <v>1992</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41">
+      <c r="D43" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>1988</v>
+      </c>
+      <c r="D44" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>1997</v>
+      </c>
+      <c r="D45" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>1994</v>
+      </c>
+      <c r="D46" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>1993</v>
+      </c>
+      <c r="D47" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
         <v>2000</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44">
+      <c r="D48" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>2000</v>
+      </c>
+      <c r="D49" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>2003</v>
+      </c>
+      <c r="D50" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
         <v>2007</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45">
-        <v>1992</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46">
-        <v>1988</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48">
-        <v>1994</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49">
-        <v>1993</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D51" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+        <v>2010</v>
+      </c>
+      <c r="D52" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54">
         <v>2010</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D54" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="B55">
-        <v>1990</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+        <v>2009</v>
+      </c>
+      <c r="D55" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B56">
-        <v>1989</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+        <v>2008</v>
+      </c>
+      <c r="D56" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B57">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+        <v>2021</v>
+      </c>
+      <c r="D57" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B58">
         <v>2008</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D58" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B59">
+        <v>2011</v>
+      </c>
+      <c r="D59" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>1991</v>
+      </c>
+      <c r="D60" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62">
         <v>2009</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A60" t="s">
-        <v>57</v>
-      </c>
-      <c r="B60">
+      <c r="D62" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>2010</v>
+      </c>
+      <c r="D63" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>1998</v>
+      </c>
+      <c r="D64" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65">
         <v>2008</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A61" t="s">
-        <v>58</v>
-      </c>
-      <c r="B61">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A62" t="s">
-        <v>59</v>
-      </c>
-      <c r="B62">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A63" t="s">
-        <v>60</v>
-      </c>
-      <c r="B63">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A64" t="s">
-        <v>61</v>
-      </c>
-      <c r="B64">
-        <v>1991</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A65" t="s">
-        <v>62</v>
-      </c>
-      <c r="B65">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D65" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B66">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+        <v>2002</v>
+      </c>
+      <c r="D66" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B67">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+        <v>2015</v>
+      </c>
+      <c r="D67" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B68">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+        <v>2017</v>
+      </c>
+      <c r="D68" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B69">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+        <v>2002</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B70">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+        <v>2020</v>
+      </c>
+      <c r="D70" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B71">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+        <v>2016</v>
+      </c>
+      <c r="D71" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B72">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+        <v>2018</v>
+      </c>
+      <c r="D72" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B73">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A74" t="s">
-        <v>71</v>
-      </c>
-      <c r="B74">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A75" t="s">
-        <v>72</v>
-      </c>
-      <c r="B75">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A76" t="s">
-        <v>73</v>
-      </c>
-      <c r="B76">
         <v>2018</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A77" t="s">
-        <v>74</v>
-      </c>
-      <c r="B77">
-        <v>2018</v>
+      <c r="D73" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1328,594 +3255,791 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6DF971-C899-44AF-911A-5310DF8C7268}">
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.9140625" customWidth="1"/>
+    <col min="4" max="4" width="79" customWidth="1"/>
+    <col min="5" max="5" width="46.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1">
         <v>1994</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2">
         <v>1998</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B3">
         <v>2018</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>2001</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5">
         <v>1988</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6">
         <v>1991</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B7">
+        <v>2000</v>
+      </c>
+      <c r="D7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8">
+        <v>1962</v>
+      </c>
+      <c r="D8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9">
+        <v>2000</v>
+      </c>
+      <c r="D9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10">
+        <v>1992</v>
+      </c>
+      <c r="D10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11">
+        <v>1997</v>
+      </c>
+      <c r="D11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>1993</v>
+      </c>
+      <c r="D12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>1997</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14">
+        <v>2009</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15">
+        <v>2002</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>2007</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
         <v>1989</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8">
+      <c r="D17" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>2002</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>2001</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20">
+        <v>2014</v>
+      </c>
+      <c r="D20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>2019</v>
+      </c>
+      <c r="D21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>2014</v>
+      </c>
+      <c r="D22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>1989</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24">
+        <v>2016</v>
+      </c>
+      <c r="D24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <v>1990</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>1989</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27">
+        <v>1993</v>
+      </c>
+      <c r="D27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>2001</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29">
+        <v>1998</v>
+      </c>
+      <c r="D29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30">
+        <v>2008</v>
+      </c>
+      <c r="D30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31">
+        <v>1992</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32">
+        <v>1995</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="68" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33">
         <v>2000</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9">
-        <v>1962</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11">
-        <v>1992</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13">
-        <v>1993</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+      <c r="D33" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
         <v>29</v>
       </c>
-      <c r="B14">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
+      <c r="B34">
         <v>2007</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20">
-        <v>1989</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>1989</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24">
-        <v>1989</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26">
-        <v>1990</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27">
-        <v>1990</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>1989</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30">
-        <v>1993</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34">
-        <v>1992</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D34" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="B35">
         <v>1995</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B36">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1997</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B37">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1992</v>
+      </c>
+      <c r="D37" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38">
+        <v>2018</v>
+      </c>
+      <c r="D38" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39">
+        <v>2020</v>
+      </c>
+      <c r="D39" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40">
+        <v>2017</v>
+      </c>
+      <c r="D40" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41">
+        <v>2016</v>
+      </c>
+      <c r="D41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42">
+        <v>2008</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
         <v>30</v>
       </c>
-      <c r="B38">
+      <c r="B43">
+        <v>2008</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44">
         <v>2007</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
-        <v>20</v>
-      </c>
-      <c r="B39">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41">
-        <v>1992</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
-        <v>73</v>
-      </c>
-      <c r="B42">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
-        <v>71</v>
-      </c>
-      <c r="B43">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
-        <v>69</v>
-      </c>
-      <c r="B44">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D44" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+        <v>2003</v>
+      </c>
+      <c r="D45" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="B46">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+        <v>2001</v>
+      </c>
+      <c r="D46" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B47">
         <v>2008</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D47" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B48">
+        <v>2007</v>
+      </c>
+      <c r="D48" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49">
+        <v>2010</v>
+      </c>
+      <c r="D49" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50">
+        <v>2021</v>
+      </c>
+      <c r="D50" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51">
+        <v>2013</v>
+      </c>
+      <c r="D51" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52">
+        <v>2006</v>
+      </c>
+      <c r="C52">
+        <v>2007</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53">
+        <v>2007</v>
+      </c>
+      <c r="D53" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54">
+        <v>2002</v>
+      </c>
+      <c r="D54" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>2009</v>
+      </c>
+      <c r="D55" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56">
         <v>2008</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
+      <c r="D56" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57">
+        <v>2010</v>
+      </c>
+      <c r="D57" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>32</v>
+      </c>
+      <c r="B58">
+        <v>2007</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59">
+        <v>2001</v>
+      </c>
+      <c r="D59" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
         <v>51</v>
       </c>
-      <c r="B49">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
-        <v>34</v>
-      </c>
-      <c r="B50">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B52">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A53" t="s">
-        <v>3</v>
-      </c>
-      <c r="B53">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
-        <v>25</v>
-      </c>
-      <c r="B54">
+      <c r="B60">
+        <v>2010</v>
+      </c>
+      <c r="D60" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61">
+        <v>2011</v>
+      </c>
+      <c r="D61" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62">
         <v>2008</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
-        <v>42</v>
-      </c>
-      <c r="B55">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
-        <v>54</v>
-      </c>
-      <c r="B56">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
-        <v>9</v>
-      </c>
-      <c r="B57">
+      <c r="D62" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>57</v>
+      </c>
+      <c r="B63">
         <v>2008</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A58" t="s">
-        <v>2</v>
-      </c>
-      <c r="B58">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A59" t="s">
-        <v>58</v>
-      </c>
-      <c r="B59">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A60" t="s">
-        <v>18</v>
-      </c>
-      <c r="B60">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A61" t="s">
-        <v>4</v>
-      </c>
-      <c r="B61">
-        <v>2006</v>
-      </c>
-      <c r="C61">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A62" t="s">
-        <v>19</v>
-      </c>
-      <c r="B62">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A63" t="s">
-        <v>67</v>
-      </c>
-      <c r="B63">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D63" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B64">
-        <v>2009</v>
+        <v>2015</v>
+      </c>
+      <c r="D64" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="B65">
-        <v>2010</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="B66">
-        <v>2008</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B67">
-        <v>2007</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="B68">
-        <v>2010</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B69">
-        <v>2011</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B70">
-        <v>2008</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="B71">
-        <v>2014</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="B72">
-        <v>2014</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
@@ -1923,12 +4047,12 @@
         <v>60</v>
       </c>
       <c r="B73">
-        <v>2011</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B74">
         <v>2008</v>
@@ -1936,7 +4060,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B75">
         <v>2008</v>
@@ -1944,7 +4068,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B76">
         <v>2015</v>
@@ -1959,10 +4083,11 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:C77">
-    <sortCondition ref="A1"/>
+  <sortState ref="A1:E77">
+    <sortCondition ref="D1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>